--- a/Riesgo/DataTarea_Exogenas_Riesgo7.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46546A1-682D-438B-8893-29A288AB11F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3233A69-6E0D-421F-A276-E2D97A5767FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="3105" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,13 +564,13 @@
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>0.41384956126651085</v>
+        <v>0.91384956126651085</v>
       </c>
       <c r="C3" s="4">
-        <v>-0.10513400000000001</v>
+        <v>0.14486599999999999</v>
       </c>
       <c r="D3" s="5">
-        <v>1.584126466184451</v>
+        <v>2.084126466184451</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="16"/>
@@ -581,13 +581,13 @@
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>0.62667017433157601</v>
+        <v>1.1266701743315761</v>
       </c>
       <c r="C4" s="4">
-        <v>7.8451000000000007E-2</v>
+        <v>0.32845099999999999</v>
       </c>
       <c r="D4" s="5">
-        <v>1.793054036591285</v>
+        <v>2.2930540365912853</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="16"/>
@@ -599,13 +599,13 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>0.7955613233791039</v>
+        <v>1.2955613233791039</v>
       </c>
       <c r="C5" s="4">
-        <v>0.21173500000000001</v>
+        <v>0.46173500000000001</v>
       </c>
       <c r="D5" s="5">
-        <v>1.846833427587901</v>
+        <v>2.3468334275879013</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="16"/>
@@ -617,13 +617,13 @@
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>0.92482938470867504</v>
+        <v>1.424829384708675</v>
       </c>
       <c r="C6" s="4">
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
       <c r="D6" s="5">
-        <v>1.864769343392815</v>
+        <v>2.364769343392815</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="16"/>
@@ -635,13 +635,13 @@
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>1.020894955175071</v>
+        <v>1.520894955175071</v>
       </c>
       <c r="C7" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D7" s="5">
-        <v>1.872242801530579</v>
+        <v>2.3722428015305788</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="16"/>
@@ -653,13 +653,13 @@
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>1.090408717430285</v>
+        <v>1.590408717430285</v>
       </c>
       <c r="C8" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D8" s="5">
-        <v>1.87561886880101</v>
+        <v>2.37561886880101</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="16"/>
@@ -671,13 +671,13 @@
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>1.1394703557769941</v>
+        <v>1.6394703557769941</v>
       </c>
       <c r="C9" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D9" s="5">
-        <v>1.8771042002492009</v>
+        <v>2.3771042002492009</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="16"/>
@@ -689,13 +689,13 @@
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>1.173303583980273</v>
+        <v>1.673303583980273</v>
       </c>
       <c r="C10" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D10" s="5">
-        <v>1.8777659436680298</v>
+        <v>2.3777659436680301</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="16"/>
